--- a/data/macro/USA/US Unemployment rate.xlsx
+++ b/data/macro/USA/US Unemployment rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3368B-A9B0-4D43-8341-3178654BF83F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9725C6-4AD1-417B-8EC9-69167AF7E795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{3015C15E-E65F-49A3-B944-3369C7E9EBA4}"/>
   </bookViews>
@@ -496,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CB4E7-01E8-4116-8C39-2B0211A5B043}">
-  <dimension ref="A1:H937"/>
+  <dimension ref="A1:H936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H904" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H928" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N934" sqref="N934"/>
+      <selection pane="bottomRight" activeCell="E946" sqref="E946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20340,15 +20340,33 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" s="2">
-        <v>45931</v>
+        <v>45962</v>
+      </c>
+      <c r="B935" s="2">
+        <v>46007</v>
+      </c>
+      <c r="C935" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E935" s="10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F935" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G935" s="10">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B936" s="2">
-        <v>46007</v>
+        <v>46031</v>
       </c>
       <c r="C936" s="3">
         <v>0.35416666666666669</v>
@@ -20357,33 +20375,13 @@
         <v>7</v>
       </c>
       <c r="E936" s="10">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F936" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G936" s="10">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A937" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B937" s="2">
-        <v>46031</v>
-      </c>
-      <c r="C937" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D937" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F937" s="10">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G937" s="10">
-        <v>4.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
